--- a/ciudades.xlsx
+++ b/ciudades.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD136FB-EA2E-4A82-B6A9-9DC6117E733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="84" yWindow="0" windowWidth="9492" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,14 +124,14 @@
     <t>Rumania-Bucarest</t>
   </si>
   <si>
-    <t>Yugoslavia-Belgrado</t>
+    <t>Serbia-Belgrado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,11 +194,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,381 +525,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
+      <c r="B33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>33</v>
       </c>
     </row>
